--- a/team_specific_matrix/Texas Southern_A.xlsx
+++ b/team_specific_matrix/Texas Southern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2173913043478261</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C2">
-        <v>0.5120772946859904</v>
+        <v>0.4922480620155039</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00966183574879227</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1884057971014493</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07246376811594203</v>
+        <v>0.08139534883720931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01834862385321101</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C3">
-        <v>0.01834862385321101</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02752293577981652</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6788990825688074</v>
+        <v>0.7175572519083969</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2568807339449541</v>
+        <v>0.2290076335877863</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.103448275862069</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1724137931034483</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04666666666666667</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006666666666666667</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.2801932367149759</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.1545893719806763</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S6">
-        <v>0.36</v>
+        <v>0.3671497584541063</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1517241379310345</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02758620689655172</v>
+        <v>0.035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02758620689655172</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2137931034482759</v>
+        <v>0.19</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02068965517241379</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1448275862068966</v>
+        <v>0.13</v>
       </c>
       <c r="R7">
-        <v>0.04827586206896552</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.3655172413793104</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1021897810218978</v>
+        <v>0.0870712401055409</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0218978102189781</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06934306569343066</v>
+        <v>0.06068601583113457</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09124087591240876</v>
+        <v>0.09762532981530343</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0364963503649635</v>
+        <v>0.0316622691292876</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1605839416058394</v>
+        <v>0.1530343007915567</v>
       </c>
       <c r="R8">
-        <v>0.08394160583941605</v>
+        <v>0.08970976253298153</v>
       </c>
       <c r="S8">
-        <v>0.4343065693430657</v>
+        <v>0.4617414248021108</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0761904761904762</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009523809523809525</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0380952380952381</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1619047619047619</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02857142857142857</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714285714285714</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="R9">
-        <v>0.1333333333333333</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="S9">
-        <v>0.3809523809523809</v>
+        <v>0.382716049382716</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1232528589580686</v>
+        <v>0.1124206708975521</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0216010165184244</v>
+        <v>0.02175883952855848</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06480304955527319</v>
+        <v>0.06980961015412511</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1283354510800508</v>
+        <v>0.1278331822302811</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02541296060991105</v>
+        <v>0.02085222121486854</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1994917407878018</v>
+        <v>0.1831368993653672</v>
       </c>
       <c r="R10">
-        <v>0.0724269377382465</v>
+        <v>0.0643699002719855</v>
       </c>
       <c r="S10">
-        <v>0.3646759847522236</v>
+        <v>0.399818676337262</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1928251121076233</v>
+        <v>0.1897106109324759</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08968609865470852</v>
+        <v>0.09646302250803858</v>
       </c>
       <c r="K11">
-        <v>0.1973094170403587</v>
+        <v>0.2057877813504823</v>
       </c>
       <c r="L11">
-        <v>0.5067264573991032</v>
+        <v>0.4983922829581994</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01345291479820628</v>
+        <v>0.009646302250803859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.768595041322314</v>
+        <v>0.7515151515151515</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1735537190082645</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05785123966942149</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02836879432624113</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1063829787234043</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.0425531914893617</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="J15">
         <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.02836879432624113</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01418439716312057</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07092198581560284</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.375886524822695</v>
+        <v>0.3439153439153439</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05511811023622047</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1811023622047244</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="I16">
-        <v>0.03937007874015748</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J16">
-        <v>0.4015748031496063</v>
+        <v>0.4099378881987578</v>
       </c>
       <c r="K16">
-        <v>0.1338582677165354</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007874015748031496</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05511811023622047</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1259842519685039</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03937007874015748</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1811023622047244</v>
+        <v>0.1710144927536232</v>
       </c>
       <c r="I17">
-        <v>0.09448818897637795</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="J17">
-        <v>0.3937007874015748</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.09055118110236221</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02755905511811024</v>
+        <v>0.02028985507246377</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="O17">
-        <v>0.04724409448818898</v>
+        <v>0.04927536231884058</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1259842519685039</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1637931034482759</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="I18">
-        <v>0.09482758620689655</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="J18">
-        <v>0.353448275862069</v>
+        <v>0.3935483870967742</v>
       </c>
       <c r="K18">
-        <v>0.1206896551724138</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N18">
-        <v>0.008620689655172414</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="O18">
-        <v>0.0603448275862069</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1637931034482759</v>
+        <v>0.1354838709677419</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03256936067551267</v>
+        <v>0.02677824267782427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.195416164053076</v>
+        <v>0.197489539748954</v>
       </c>
       <c r="I19">
-        <v>0.06996381182147166</v>
+        <v>0.07615062761506276</v>
       </c>
       <c r="J19">
-        <v>0.3510253317249699</v>
+        <v>0.3523012552301255</v>
       </c>
       <c r="K19">
-        <v>0.1278648974668275</v>
+        <v>0.1263598326359833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01568154402895054</v>
+        <v>0.01841004184100418</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06393244873341375</v>
+        <v>0.06443514644351464</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1435464414957781</v>
+        <v>0.1380753138075314</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas Southern_A.xlsx
+++ b/team_specific_matrix/Texas Southern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2325581395348837</v>
+        <v>0.2293906810035842</v>
       </c>
       <c r="C2">
-        <v>0.4922480620155039</v>
+        <v>0.4982078853046595</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007751937984496124</v>
+        <v>0.007168458781362007</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.186046511627907</v>
+        <v>0.1863799283154122</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08139534883720931</v>
+        <v>0.07885304659498207</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01526717557251908</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="C3">
-        <v>0.01526717557251908</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02290076335877863</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7175572519083969</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2290076335877863</v>
+        <v>0.2237762237762238</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.225</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03864734299516908</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004830917874396135</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05797101449275362</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2801932367149759</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03864734299516908</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1545893719806763</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R6">
-        <v>0.05797101449275362</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="S6">
-        <v>0.3671497584541063</v>
+        <v>0.3695652173913043</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1126126126126126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.035</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.19</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.13</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="S7">
-        <v>0.395</v>
+        <v>0.3828828828828829</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0870712401055409</v>
+        <v>0.0891566265060241</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01846965699208443</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06068601583113457</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09762532981530343</v>
+        <v>0.09397590361445783</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0316622691292876</v>
+        <v>0.02891566265060241</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1530343007915567</v>
+        <v>0.1493975903614458</v>
       </c>
       <c r="R8">
-        <v>0.08970976253298153</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="S8">
-        <v>0.4617414248021108</v>
+        <v>0.4626506024096386</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04938271604938271</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01234567901234568</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03703703703703703</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.154320987654321</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02469135802469136</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2037037037037037</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="R9">
-        <v>0.1358024691358025</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="S9">
-        <v>0.382716049382716</v>
+        <v>0.3945945945945946</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1124206708975521</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02175883952855848</v>
+        <v>0.02012882447665056</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06980961015412511</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1278331822302811</v>
+        <v>0.1239935587761675</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02085222121486854</v>
+        <v>0.02093397745571659</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1831368993653672</v>
+        <v>0.1948470209339775</v>
       </c>
       <c r="R10">
-        <v>0.0643699002719855</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="S10">
-        <v>0.399818676337262</v>
+        <v>0.3985507246376812</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1897106109324759</v>
+        <v>0.1820809248554913</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09646302250803858</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="K11">
-        <v>0.2057877813504823</v>
+        <v>0.208092485549133</v>
       </c>
       <c r="L11">
-        <v>0.4983922829581994</v>
+        <v>0.5028901734104047</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009646302250803859</v>
+        <v>0.008670520231213872</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7515151515151515</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1818181818181818</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006060606060606061</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06060606060606061</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02645502645502645</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1531100478468899</v>
       </c>
       <c r="I15">
-        <v>0.05291005291005291</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="K15">
-        <v>0.02116402116402116</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01058201058201058</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06878306878306878</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3439153439153439</v>
+        <v>0.3301435406698565</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04968944099378882</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1677018633540373</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I16">
-        <v>0.04347826086956522</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="J16">
-        <v>0.4099378881987578</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="K16">
-        <v>0.1490683229813665</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006211180124223602</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04347826086956522</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03478260869565217</v>
+        <v>0.03266331658291458</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1710144927536232</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="I17">
-        <v>0.1043478260869565</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="K17">
-        <v>0.09565217391304348</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02028985507246377</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="N17">
-        <v>0.002898550724637681</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O17">
-        <v>0.04927536231884058</v>
+        <v>0.05276381909547739</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1217391304347826</v>
+        <v>0.1206030150753769</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1483870967741935</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="I18">
-        <v>0.1225806451612903</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="J18">
-        <v>0.3935483870967742</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K18">
-        <v>0.1096774193548387</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03225806451612903</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="N18">
-        <v>0.006451612903225806</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O18">
-        <v>0.05161290322580645</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1354838709677419</v>
+        <v>0.1202185792349727</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02677824267782427</v>
+        <v>0.02579666160849772</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.197489539748954</v>
+        <v>0.1965098634294385</v>
       </c>
       <c r="I19">
-        <v>0.07615062761506276</v>
+        <v>0.07814871016691957</v>
       </c>
       <c r="J19">
-        <v>0.3523012552301255</v>
+        <v>0.3566009104704097</v>
       </c>
       <c r="K19">
-        <v>0.1263598326359833</v>
+        <v>0.125948406676783</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01841004184100418</v>
+        <v>0.01820940819423369</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007587253414264037</v>
       </c>
       <c r="O19">
-        <v>0.06443514644351464</v>
+        <v>0.0629742033383915</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1380753138075314</v>
+        <v>0.1350531107738998</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Texas Southern_A.xlsx
+++ b/team_specific_matrix/Texas Southern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2293906810035842</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.4982078853046595</v>
+        <v>0.493006993006993</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007168458781362007</v>
+        <v>0.01048951048951049</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1863799283154122</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07885304659498207</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01398601398601399</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02097902097902098</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7272727272727273</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2237762237762238</v>
+        <v>0.2206896551724138</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.119047619047619</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0391304347826087</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004347826086956522</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05217391304347826</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2782608695652174</v>
+        <v>0.2821576763485477</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04347826086956522</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1521739130434783</v>
+        <v>0.1535269709543569</v>
       </c>
       <c r="R6">
-        <v>0.06086956521739131</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="S6">
-        <v>0.3695652173913043</v>
+        <v>0.3568464730290457</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1126126126126126</v>
+        <v>0.1158798283261803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03153153153153153</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04054054054054054</v>
+        <v>0.03862660944206009</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1981981981981982</v>
+        <v>0.1888412017167382</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02702702702702703</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1351351351351351</v>
+        <v>0.1373390557939914</v>
       </c>
       <c r="R7">
-        <v>0.07207207207207207</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="S7">
-        <v>0.3828828828828829</v>
+        <v>0.3905579399141631</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0891566265060241</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01686746987951807</v>
+        <v>0.01605504587155963</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06265060240963856</v>
+        <v>0.06651376146788991</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09397590361445783</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02891566265060241</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1493975903614458</v>
+        <v>0.1513761467889908</v>
       </c>
       <c r="R8">
-        <v>0.0963855421686747</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="S8">
-        <v>0.4626506024096386</v>
+        <v>0.4541284403669725</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04864864864864865</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01621621621621622</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03783783783783784</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.145945945945946</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02702702702702703</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1945945945945946</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="R9">
-        <v>0.1351351351351351</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="S9">
-        <v>0.3945945945945946</v>
+        <v>0.3957219251336899</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.106280193236715</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02012882447665056</v>
+        <v>0.02029664324746292</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06763285024154589</v>
+        <v>0.06713505074160812</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1239935587761675</v>
+        <v>0.1249024199843872</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02093397745571659</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1948470209339775</v>
+        <v>0.1943793911007026</v>
       </c>
       <c r="R10">
-        <v>0.06763285024154589</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="S10">
-        <v>0.3985507246376812</v>
+        <v>0.3965651834504293</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1820809248554913</v>
+        <v>0.1782729805013928</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09826589595375723</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="K11">
-        <v>0.208092485549133</v>
+        <v>0.2033426183844011</v>
       </c>
       <c r="L11">
-        <v>0.5028901734104047</v>
+        <v>0.5153203342618384</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008670520231213872</v>
+        <v>0.008356545961002786</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7567567567567568</v>
+        <v>0.7589743589743589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1837837837837838</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.005405405405405406</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05405405405405406</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6052631578947368</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2894736842105263</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1052631578947368</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02392344497607655</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1531100478468899</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="J15">
-        <v>0.3444976076555024</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="K15">
-        <v>0.01913875598086124</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009569377990430622</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06698564593301436</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3301435406698565</v>
+        <v>0.3256880733944954</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05113636363636364</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1590909090909091</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="I16">
-        <v>0.05113636363636364</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="J16">
-        <v>0.3977272727272727</v>
+        <v>0.3977900552486188</v>
       </c>
       <c r="K16">
-        <v>0.1534090909090909</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005681818181818182</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03266331658291458</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1658291457286432</v>
+        <v>0.1714975845410628</v>
       </c>
       <c r="I17">
-        <v>0.1055276381909548</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="J17">
-        <v>0.407035175879397</v>
+        <v>0.4033816425120773</v>
       </c>
       <c r="K17">
-        <v>0.09547738693467336</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01758793969849246</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="O17">
-        <v>0.05276381909547739</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1206030150753769</v>
+        <v>0.1231884057971015</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01092896174863388</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1311475409836066</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="I18">
-        <v>0.1147540983606557</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="J18">
-        <v>0.4262295081967213</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="K18">
-        <v>0.1147540983606557</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0273224043715847</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N18">
-        <v>0.00546448087431694</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O18">
-        <v>0.04918032786885246</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1202185792349727</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02579666160849772</v>
+        <v>0.02494497432134996</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1965098634294385</v>
+        <v>0.2010271460014673</v>
       </c>
       <c r="I19">
-        <v>0.07814871016691957</v>
+        <v>0.07703595011005136</v>
       </c>
       <c r="J19">
-        <v>0.3566009104704097</v>
+        <v>0.3514306676449009</v>
       </c>
       <c r="K19">
-        <v>0.125948406676783</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01820940819423369</v>
+        <v>0.01907556859867938</v>
       </c>
       <c r="N19">
-        <v>0.0007587253414264037</v>
+        <v>0.0007336757153338225</v>
       </c>
       <c r="O19">
-        <v>0.0629742033383915</v>
+        <v>0.06162876008804109</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1350531107738998</v>
+        <v>0.136463683052091</v>
       </c>
     </row>
   </sheetData>
